--- a/PN_Datasets/Narrative/CSVs_of_Combined_Data_N/Play_Narrative_Demographics.xlsx
+++ b/PN_Datasets/Narrative/CSVs_of_Combined_Data_N/Play_Narrative_Demographics.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristenjohnson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristenjohnson/Desktop/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F765C093-3402-8445-9975-47027D58F5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E6AF5-2AE7-8B40-B9BC-409B886D9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{7269CB37-E427-A54D-9AD9-C9C1E00794F7}"/>
+    <workbookView xWindow="3640" yWindow="3480" windowWidth="27640" windowHeight="16940" xr2:uid="{7269CB37-E427-A54D-9AD9-C9C1E00794F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayNarrative study" sheetId="2" r:id="rId1"/>
+    <sheet name="AllNarrative" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="81">
   <si>
     <t>ChildID</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -329,6 +330,9 @@
   <si>
     <t>W09</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -504,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -641,6 +645,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,11 +982,1951 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68BD99F-C9BB-C74E-AFAA-FA20A755B923}">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2" s="65">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="11">
+        <f>IF(I2="Bachelor's Degree",16,IF(I2="Some College or Trade School",14,IF(I2="High School or GED",12,IF(I2="Advanced Degree",18,IF(I2="Some High School",10,"NoData")))))</f>
+        <v>16</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="12">
+        <f>IF(K2="Bachelor's Degree",16,IF(K2="Some College or Trade School",14,IF(K2="High School or GED",12,IF(K2="Advanced Degree",18,IF(K2="Some High School",10,"NoData")))))</f>
+        <v>16</v>
+      </c>
+      <c r="M2" s="13">
+        <f>IF(H2="Mother",J2,IF(H2="Father",L2,IF(H2="Dual",(J2+L2)/2)))</f>
+        <v>16</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14">
+        <v>87500</v>
+      </c>
+      <c r="P2" s="15">
+        <v>6.8550000000000004</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="16">
+        <v>7.79</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>25</v>
+      </c>
+      <c r="B3" s="65">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5.6530000000000005</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J27" si="0">IF(I3="Bachelor's Degree",16,IF(I3="Some College or Trade School",14,IF(I3="High School or GED",12,IF(I3="Advanced Degree",18,IF(I3="Some High School",10,"NoData")))))</f>
+        <v>16</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="1">IF(K3="Bachelor's Degree",16,IF(K3="Some College or Trade School",14,IF(K3="High School or GED",12,IF(K3="Advanced Degree",18,IF(K3="Some High School",10,"NoData")))))</f>
+        <v>14</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M26" si="2">IF(H3="Mother",J3,IF(H3="Father",L3,IF(H3="Dual",(J3+L3)/2)))</f>
+        <v>16</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="21">
+        <v>87500</v>
+      </c>
+      <c r="P3" s="22">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="7">
+        <v>7.7620000000000005</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>28</v>
+      </c>
+      <c r="B4" s="65">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P4" s="22">
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="7">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>29</v>
+      </c>
+      <c r="B5" s="65">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.6829999999999998</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M5" s="8">
+        <f>IF(H5="Mother",J5,IF(H5="Father",L5,IF(H5="Dual",(J5+L5)/2)))</f>
+        <v>16</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P5" s="22">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="7">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>37</v>
+      </c>
+      <c r="B6" s="65">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="21">
+        <v>87500</v>
+      </c>
+      <c r="P6" s="22">
+        <v>6.6859999999999999</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="7">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>38</v>
+      </c>
+      <c r="B7" s="65">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="21">
+        <v>87500</v>
+      </c>
+      <c r="P7" s="22">
+        <v>6.6609999999999996</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7.516</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>40</v>
+      </c>
+      <c r="B8" s="65">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="21">
+        <v>87500</v>
+      </c>
+      <c r="P8" s="22">
+        <v>6.7460000000000004</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>42</v>
+      </c>
+      <c r="B9" s="65">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.6390000000000002</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(K9="Bachelor's Degree",16,IF(K9="Some College or Trade School",14,IF(K9="High School or GED",12,IF(K9="Advanced Degree",18,IF(K9="Some High School",10,"NoData")))))</f>
+        <v>NoData</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="21">
+        <v>25000</v>
+      </c>
+      <c r="P9" s="22">
+        <v>6.62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="7">
+        <v>7.6690000000000005</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43</v>
+      </c>
+      <c r="B10" s="65">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P10" s="22">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="7">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>44</v>
+      </c>
+      <c r="B11" s="65">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5.4130000000000003</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="21">
+        <v>42500</v>
+      </c>
+      <c r="P11" s="22">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="7">
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45</v>
+      </c>
+      <c r="B12" s="65">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5.4859999999999998</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P12" s="22">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="7">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>54</v>
+      </c>
+      <c r="B13" s="65">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5.5789999999999997</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="21">
+        <v>42500</v>
+      </c>
+      <c r="P13" s="22">
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="7">
+        <v>7.593</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>58</v>
+      </c>
+      <c r="B14" s="65">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5.3719999999999999</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="21">
+        <v>42500</v>
+      </c>
+      <c r="P14" s="22">
+        <v>6.2949999999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="7">
+        <v>7.2919999999999998</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>61</v>
+      </c>
+      <c r="B15" s="65">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5.27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>NoData</v>
+      </c>
+      <c r="M15" s="8">
+        <f>IF(H15="Mother",J15,IF(H15="Father",L15,IF(H15="Dual",(J15+L15)/2)))</f>
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="21">
+        <v>25000</v>
+      </c>
+      <c r="P15" s="22">
+        <v>6.3090000000000002</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>68</v>
+      </c>
+      <c r="B16" s="65">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="21">
+        <v>7500</v>
+      </c>
+      <c r="P16" s="22">
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>75</v>
+      </c>
+      <c r="B17" s="65">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P17" s="22">
+        <v>6.1689999999999996</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="7">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>84</v>
+      </c>
+      <c r="B18" s="65">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.4619999999999997</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P18" s="22">
+        <v>6.399</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="7">
+        <v>7.4290000000000003</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>102</v>
+      </c>
+      <c r="B19" s="65">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>NoData</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="21">
+        <v>42500</v>
+      </c>
+      <c r="P19" s="22">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="7">
+        <v>7.4370000000000003</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>103</v>
+      </c>
+      <c r="B20" s="65">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P20" s="22">
+        <v>6.21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="7">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>106</v>
+      </c>
+      <c r="B21" s="65">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P21" s="22">
+        <v>6.5869999999999997</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="7">
+        <v>7.53</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>30</v>
+      </c>
+      <c r="B22" s="12">
+        <v>3</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="16">
+        <v>5.53</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="14">
+        <v>62500</v>
+      </c>
+      <c r="P22" s="15">
+        <v>6.593</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="16">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>35</v>
+      </c>
+      <c r="B23" s="34">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>46</v>
+      </c>
+      <c r="B24" s="34">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M24" s="8">
+        <v>12</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>93</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5.6530000000000005</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="33">
+        <v>87500</v>
+      </c>
+      <c r="P25" s="22">
+        <v>6.5270000000000001</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="7">
+        <v>7.5220000000000002</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>94</v>
+      </c>
+      <c r="B26" s="34">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="7">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P26" s="22">
+        <v>7.32</v>
+      </c>
+      <c r="R26" s="7">
+        <v>8.3469999999999995</v>
+      </c>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>98</v>
+      </c>
+      <c r="B27" s="34">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L32" si="3">IF(K27="Bachelor's Degree",16,IF(K27="Some College or Trade School",14,IF(K27="High School or GED",12,IF(K27="Advanced Degree",18,IF(K27="Some High School",10,"NoData")))))</f>
+        <v>16</v>
+      </c>
+      <c r="M27" s="8">
+        <v>16</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="22">
+        <v>9.8610000000000007</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
+        <v>99</v>
+      </c>
+      <c r="B28" s="34">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="7">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" ref="J28:J32" si="4">IF(I28="Bachelor's Degree",16,IF(I28="Some College or Trade School",14,IF(I28="High School or GED",12,IF(I28="Advanced Degree",18,IF(I28="Some High School",10,"NoData")))))</f>
+        <v>16</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" ref="M28:M32" si="5">IF(H28="Mother",J28,IF(H28="Father",L28,IF(H28="Dual",(J28+L28)/2)))</f>
+        <v>16</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="21">
+        <v>42500</v>
+      </c>
+      <c r="P28" s="22">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
+        <v>117</v>
+      </c>
+      <c r="B29" s="34">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5.9429999999999996</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="21">
+        <v>62500</v>
+      </c>
+      <c r="P29" s="22">
+        <v>6.85</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="7">
+        <v>7.7919999999999998</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>132</v>
+      </c>
+      <c r="B30" s="34">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P30" s="22">
+        <v>5.65</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="7">
+        <v>6.6230000000000002</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
+        <v>135</v>
+      </c>
+      <c r="B31" s="34">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.1310000000000002</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="20">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P31" s="22">
+        <v>6.109</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="7">
+        <v>7.085</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>150</v>
+      </c>
+      <c r="B32" s="34">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P32" s="22">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R32" s="7">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD4821-39FF-4348-8EDF-57F8B12323F9}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4869,7 +6817,7 @@
         <v>70</v>
       </c>
       <c r="I68" s="20">
-        <f t="shared" ref="I68:I84" si="4">IF(H68="Bachelor's Degree",16,IF(H68="Some College or Trade School",14,IF(H68="High School or GED",12,IF(H68="Advanced Degree",18,IF(H68="Some High School",10,"NoData")))))</f>
+        <f t="shared" ref="I68:I83" si="4">IF(H68="Bachelor's Degree",16,IF(H68="Some College or Trade School",14,IF(H68="High School or GED",12,IF(H68="Advanced Degree",18,IF(H68="Some High School",10,"NoData")))))</f>
         <v>16</v>
       </c>
       <c r="J68" s="19" t="s">
